--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/RHODE_ISLAND_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/RHODE_ISLAND_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C3">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -714,12 +714,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C26">
@@ -815,7 +815,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C33">
@@ -841,7 +841,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C35">
@@ -854,7 +854,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C36">
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C38">
@@ -924,7 +924,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C41">
@@ -937,7 +937,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C42">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C44">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C45">
@@ -1002,7 +1002,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C47">
@@ -1067,7 +1067,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C52">
@@ -1137,7 +1137,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C57">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C65">
@@ -1259,7 +1259,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C66">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C67">
@@ -1285,7 +1285,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C68">
@@ -1661,7 +1661,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C95">
@@ -1687,7 +1687,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C97">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C107">
@@ -1835,7 +1835,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C108">
@@ -2167,41 +2167,6 @@
       </c>
       <c r="D131">
         <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/RHODE_ISLAND_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/RHODE_ISLAND_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -502,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 22 -</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Santo Domingo Tepuxtepec</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1934,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -1947,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1978,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1991,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2066,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -2079,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2092,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2105,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -2118,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ursulo Galván</t>
@@ -2131,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -2144,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
